--- a/eye-tracker/RSL/V2/QA.xlsx
+++ b/eye-tracker/RSL/V2/QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\doctorate-degree\eye-tracker\RSL\V2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Google Drive\Doutorado\Ecomp\dev\doctorate-degree\eye-tracker\RSL\V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE78B4E8-5188-4F02-A1C6-8A8C5C7E6ECD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B8A37A-B74F-4ABB-B88C-7F8325D06557}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{AEE29E62-D9E1-4726-AA00-942A07BD2292}"/>
+    <workbookView xWindow="20370" yWindow="-2340" windowWidth="29040" windowHeight="15840" xr2:uid="{AEE29E62-D9E1-4726-AA00-942A07BD2292}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -507,6 +507,26 @@
   </cellStyles>
   <dxfs count="22">
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -739,26 +759,6 @@
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -872,13 +872,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -901,6 +894,13 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -951,7 +951,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D62C7069-0E48-425D-BC1D-8EA905F97788}" name="Tabela2" displayName="Tabela2" ref="A1:S24" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowBorderDxfId="18" tableBorderDxfId="19" totalsRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D62C7069-0E48-425D-BC1D-8EA905F97788}" name="Tabela2" displayName="Tabela2" ref="A1:S24" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
   <autoFilter ref="A1:S24" xr:uid="{B2A5190D-0D1C-49E0-B91B-DD6731F5449B}"/>
   <tableColumns count="19">
     <tableColumn id="4" xr3:uid="{6C30E838-6526-4C82-8B58-BCAAD4155273}" name="Title" dataDxfId="16"/>
@@ -963,20 +963,20 @@
     <tableColumn id="18" xr3:uid="{ED3B05AA-9FCF-4322-B14D-9CA3E354283B}" name="S2 " dataDxfId="10"/>
     <tableColumn id="19" xr3:uid="{C01D3F04-263C-475D-A499-CBFB50D29917}" name="S3 " dataDxfId="9"/>
     <tableColumn id="20" xr3:uid="{C09556D5-5491-4676-93FC-B1DDB944738F}" name="S4 " dataDxfId="8"/>
-    <tableColumn id="21" xr3:uid="{1673525D-E8F8-469D-93C0-956D3805665E}" name="Quality_x000a_Score" dataDxfId="7">
-      <calculatedColumnFormula>SUM(B2:E2)/6+(3*(SUM(F2:I2)/4))</calculatedColumnFormula>
+    <tableColumn id="21" xr3:uid="{1673525D-E8F8-469D-93C0-956D3805665E}" name="Quality_x000a_Score" dataDxfId="0">
+      <calculatedColumnFormula>SUM(B2:E2)/4+(3*(SUM(F2:I2)/4))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{2141AB66-B44E-4338-8E7E-E14001B97979}" name="QA1" dataDxfId="6">
+    <tableColumn id="22" xr3:uid="{2141AB66-B44E-4338-8E7E-E14001B97979}" name="QA1" dataDxfId="7">
       <calculatedColumnFormula>IF(J2 &gt; 2.5, "High", IF(J2 &lt; 1.5,"Lower","Medium"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{A6252660-A121-4B73-B4BA-65B6753CB89A}" name="Jornal/Conference _x000a_name" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{A6252660-A121-4B73-B4BA-65B6753CB89A}" name="Jornal/Conference _x000a_name" dataDxfId="6"/>
     <tableColumn id="9" xr3:uid="{2BC1CF98-02CF-49F8-8497-F416E326A5B6}" name="Ranking of _x000a_the publications"/>
     <tableColumn id="8" xr3:uid="{FDF22840-6B62-40C4-AAD5-E79B2C3B246D}" name="QA2"/>
-    <tableColumn id="23" xr3:uid="{D3DE14A3-C293-4A67-936C-B8AC7497CE41}" name="Qty _x000a_citations " dataDxfId="4"/>
-    <tableColumn id="24" xr3:uid="{E459D15D-03BB-4CCC-8CB6-ED28DCB11497}" name="QC3" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{04E69620-96E8-43A1-A9DA-57E375DEE949}" name="Year" dataDxfId="2"/>
-    <tableColumn id="25" xr3:uid="{095EBDB9-3516-4AEB-A02A-9E41F0D72765}" name="CQ4" dataDxfId="1"/>
-    <tableColumn id="26" xr3:uid="{AE128175-4074-41C8-97E7-A465E097D409}" name="Status" dataDxfId="0"/>
+    <tableColumn id="23" xr3:uid="{D3DE14A3-C293-4A67-936C-B8AC7497CE41}" name="Qty _x000a_citations " dataDxfId="5"/>
+    <tableColumn id="24" xr3:uid="{E459D15D-03BB-4CCC-8CB6-ED28DCB11497}" name="QC3" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{04E69620-96E8-43A1-A9DA-57E375DEE949}" name="Year" dataDxfId="3"/>
+    <tableColumn id="25" xr3:uid="{095EBDB9-3516-4AEB-A02A-9E41F0D72765}" name="CQ4" dataDxfId="2"/>
+    <tableColumn id="26" xr3:uid="{AE128175-4074-41C8-97E7-A465E097D409}" name="Status" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1282,7 +1282,7 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1380,11 +1380,11 @@
         <v>1</v>
       </c>
       <c r="J2" s="10">
-        <f>SUM(B2:E2)/6+(3*(SUM(F2:I2)/4))</f>
-        <v>2.2916666666666665</v>
+        <f>SUM(B2:E2)/4+(3*(SUM(F2:I2)/4))</f>
+        <v>2.5</v>
       </c>
       <c r="K2" s="11" t="str">
-        <f t="shared" ref="K2:K24" si="0">IF(J2 &gt; 2.5, "High", IF(J2 &lt; 1.5,"Lower","Medium"))</f>
+        <f>IF(J2 &gt; 2.5, "High", IF(J2 &lt; 1.5,"Lower","Medium"))</f>
         <v>Medium</v>
       </c>
       <c r="L2" s="12" t="s">
@@ -1437,11 +1437,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="16">
-        <f t="shared" ref="J3:J24" si="1">SUM(B3:E3)/6+(3*(SUM(F3:I3)/4))</f>
-        <v>2.5416666666666665</v>
+        <f t="shared" ref="J2:J24" si="0">SUM(B3:E3)/4+(3*(SUM(F3:I3)/4))</f>
+        <v>2.875</v>
       </c>
       <c r="K3" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K2:K24" si="1">IF(J3 &gt; 2.5, "High", IF(J3 &lt; 1.5,"Lower","Medium"))</f>
         <v>High</v>
       </c>
       <c r="L3" s="17" t="s">
@@ -1494,11 +1494,11 @@
         <v>0</v>
       </c>
       <c r="J4" s="16">
+        <f t="shared" si="0"/>
+        <v>3.125</v>
+      </c>
+      <c r="K4" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>2.8333333333333335</v>
-      </c>
-      <c r="K4" s="19" t="str">
-        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="L4" s="21" t="s">
@@ -1551,11 +1551,11 @@
         <v>0</v>
       </c>
       <c r="J5" s="16">
+        <f t="shared" si="0"/>
+        <v>3.25</v>
+      </c>
+      <c r="K5" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>2.9166666666666665</v>
-      </c>
-      <c r="K5" s="18" t="str">
-        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="L5" s="23" t="s">
@@ -1608,11 +1608,11 @@
         <v>0</v>
       </c>
       <c r="J6" s="16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K6" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>2.75</v>
-      </c>
-      <c r="K6" s="14" t="str">
-        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="L6" s="17" t="s">
@@ -1665,11 +1665,11 @@
         <v>0</v>
       </c>
       <c r="J7" s="16">
+        <f t="shared" si="0"/>
+        <v>3.125</v>
+      </c>
+      <c r="K7" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>2.8333333333333335</v>
-      </c>
-      <c r="K7" s="18" t="str">
-        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="L7" s="18" t="s">
@@ -1722,11 +1722,11 @@
         <v>0</v>
       </c>
       <c r="J8" s="16">
+        <f t="shared" si="0"/>
+        <v>1.75</v>
+      </c>
+      <c r="K8" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>1.5416666666666667</v>
-      </c>
-      <c r="K8" s="11" t="str">
-        <f t="shared" si="0"/>
         <v>Medium</v>
       </c>
       <c r="L8" s="12" t="s">
@@ -1779,11 +1779,11 @@
         <v>0</v>
       </c>
       <c r="J9" s="16">
+        <f t="shared" si="0"/>
+        <v>1.875</v>
+      </c>
+      <c r="K9" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>1.75</v>
-      </c>
-      <c r="K9" s="18" t="str">
-        <f t="shared" si="0"/>
         <v>Medium</v>
       </c>
       <c r="L9" s="23" t="s">
@@ -1836,11 +1836,11 @@
         <v>0</v>
       </c>
       <c r="J10" s="16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K10" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>2.75</v>
-      </c>
-      <c r="K10" s="16" t="str">
-        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="L10" s="20" t="s">
@@ -1893,11 +1893,11 @@
         <v>0</v>
       </c>
       <c r="J11" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K11" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="K11" s="24" t="str">
-        <f t="shared" si="0"/>
         <v>Lower</v>
       </c>
       <c r="L11" s="23" t="s">
@@ -1950,11 +1950,11 @@
         <v>0</v>
       </c>
       <c r="J12" s="16">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="K12" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>0.625</v>
-      </c>
-      <c r="K12" s="27" t="str">
-        <f t="shared" si="0"/>
         <v>Lower</v>
       </c>
       <c r="L12" s="17" t="s">
@@ -2005,11 +2005,11 @@
         <v>0</v>
       </c>
       <c r="J13" s="16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K13" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>2.75</v>
-      </c>
-      <c r="K13" s="24" t="str">
-        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="L13" s="23" t="s">
@@ -2062,12 +2062,12 @@
         <v>0</v>
       </c>
       <c r="J14" s="16">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="K14" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>1.375</v>
-      </c>
-      <c r="K14" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>Lower</v>
+        <v>Medium</v>
       </c>
       <c r="L14" s="17" t="s">
         <v>20</v>
@@ -2119,11 +2119,11 @@
         <v>0</v>
       </c>
       <c r="J15" s="16">
+        <f t="shared" si="0"/>
+        <v>2.375</v>
+      </c>
+      <c r="K15" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>2.2083333333333335</v>
-      </c>
-      <c r="K15" s="24" t="str">
-        <f t="shared" si="0"/>
         <v>Medium</v>
       </c>
       <c r="L15" s="23" t="s">
@@ -2176,11 +2176,11 @@
         <v>0</v>
       </c>
       <c r="J16" s="16">
+        <f t="shared" si="0"/>
+        <v>3.125</v>
+      </c>
+      <c r="K16" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>2.8333333333333335</v>
-      </c>
-      <c r="K16" s="19" t="str">
-        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="L16" s="21" t="s">
@@ -2233,12 +2233,12 @@
         <v>0</v>
       </c>
       <c r="J17" s="16">
+        <f t="shared" si="0"/>
+        <v>2.625</v>
+      </c>
+      <c r="K17" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>2.375</v>
-      </c>
-      <c r="K17" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>Medium</v>
+        <v>High</v>
       </c>
       <c r="L17" s="29" t="s">
         <v>54</v>
@@ -2290,11 +2290,11 @@
         <v>0</v>
       </c>
       <c r="J18" s="16">
+        <f t="shared" si="0"/>
+        <v>1.125</v>
+      </c>
+      <c r="K18" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K18" s="30" t="str">
-        <f t="shared" si="0"/>
         <v>Lower</v>
       </c>
       <c r="L18" s="29" t="s">
@@ -2347,12 +2347,12 @@
         <v>0</v>
       </c>
       <c r="J19" s="16">
+        <f t="shared" si="0"/>
+        <v>2.75</v>
+      </c>
+      <c r="K19" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>2.4583333333333335</v>
-      </c>
-      <c r="K19" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>Medium</v>
+        <v>High</v>
       </c>
       <c r="L19" s="23" t="s">
         <v>39</v>
@@ -2404,11 +2404,11 @@
         <v>0</v>
       </c>
       <c r="J20" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K20" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>1.8333333333333333</v>
-      </c>
-      <c r="K20" s="14" t="str">
-        <f t="shared" si="0"/>
         <v>Medium</v>
       </c>
       <c r="L20" s="29" t="s">
@@ -2461,12 +2461,12 @@
         <v>0</v>
       </c>
       <c r="J21" s="16">
+        <f t="shared" si="0"/>
+        <v>2.75</v>
+      </c>
+      <c r="K21" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>2.4583333333333335</v>
-      </c>
-      <c r="K21" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>Medium</v>
+        <v>High</v>
       </c>
       <c r="L21" s="29" t="s">
         <v>59</v>
@@ -2518,11 +2518,11 @@
         <v>0</v>
       </c>
       <c r="J22" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K22" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>2.75</v>
-      </c>
-      <c r="K22" s="32" t="str">
-        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="L22" s="33" t="s">
@@ -2575,11 +2575,11 @@
         <v>0</v>
       </c>
       <c r="J23" s="16">
+        <f t="shared" si="0"/>
+        <v>3.25</v>
+      </c>
+      <c r="K23" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>2.9166666666666665</v>
-      </c>
-      <c r="K23" s="16" t="str">
-        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="L23" s="34" t="s">
@@ -2632,11 +2632,11 @@
         <v>0</v>
       </c>
       <c r="J24" s="37">
+        <f t="shared" si="0"/>
+        <v>3.125</v>
+      </c>
+      <c r="K24" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>2.8333333333333335</v>
-      </c>
-      <c r="K24" s="38" t="str">
-        <f t="shared" si="0"/>
         <v>High</v>
       </c>
       <c r="L24" s="39" t="s">
